--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gnai2-F2r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gnai2-F2r.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>184.0626906666667</v>
+        <v>63.91118233333333</v>
       </c>
       <c r="H2">
-        <v>552.188072</v>
+        <v>191.733547</v>
       </c>
       <c r="I2">
-        <v>0.6510505751503485</v>
+        <v>0.4067926910433548</v>
       </c>
       <c r="J2">
-        <v>0.6510505751503486</v>
+        <v>0.4067926910433549</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>5.914580333333333</v>
+        <v>3.841766333333334</v>
       </c>
       <c r="N2">
-        <v>17.743741</v>
+        <v>11.525299</v>
       </c>
       <c r="O2">
-        <v>0.07170723223214717</v>
+        <v>0.04788297632726236</v>
       </c>
       <c r="P2">
-        <v>0.07170723223214717</v>
+        <v>0.04788297632726236</v>
       </c>
       <c r="Q2">
-        <v>1088.653570317484</v>
+        <v>245.5318286117281</v>
       </c>
       <c r="R2">
-        <v>9797.882132857352</v>
+        <v>2209.786457505553</v>
       </c>
       <c r="S2">
-        <v>0.04668503478717902</v>
+        <v>0.01947844479533231</v>
       </c>
       <c r="T2">
-        <v>0.04668503478717903</v>
+        <v>0.01947844479533231</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>184.0626906666667</v>
+        <v>63.91118233333333</v>
       </c>
       <c r="H3">
-        <v>552.188072</v>
+        <v>191.733547</v>
       </c>
       <c r="I3">
-        <v>0.6510505751503485</v>
+        <v>0.4067926910433548</v>
       </c>
       <c r="J3">
-        <v>0.6510505751503486</v>
+        <v>0.4067926910433549</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>134.822727</v>
       </c>
       <c r="O3">
-        <v>0.5448549206821932</v>
+        <v>0.5601341401483774</v>
       </c>
       <c r="P3">
-        <v>0.5448549206821932</v>
+        <v>0.5601341401483775</v>
       </c>
       <c r="Q3">
-        <v>8271.944631545817</v>
+        <v>2872.226629324741</v>
       </c>
       <c r="R3">
-        <v>74447.50168391236</v>
+        <v>25850.03966392266</v>
       </c>
       <c r="S3">
-        <v>0.3547281094836394</v>
+        <v>0.2278584742162141</v>
       </c>
       <c r="T3">
-        <v>0.3547281094836395</v>
+        <v>0.2278584742162142</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>184.0626906666667</v>
+        <v>63.91118233333333</v>
       </c>
       <c r="H4">
-        <v>552.188072</v>
+        <v>191.733547</v>
       </c>
       <c r="I4">
-        <v>0.6510505751503485</v>
+        <v>0.4067926910433548</v>
       </c>
       <c r="J4">
-        <v>0.6510505751503486</v>
+        <v>0.4067926910433549</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>31.626851</v>
+        <v>31.44972933333333</v>
       </c>
       <c r="N4">
-        <v>94.88055300000001</v>
+        <v>94.349188</v>
       </c>
       <c r="O4">
-        <v>0.3834378470856596</v>
+        <v>0.3919828835243602</v>
       </c>
       <c r="P4">
-        <v>0.3834378470856596</v>
+        <v>0.3919828835243602</v>
       </c>
       <c r="Q4">
-        <v>5821.323292373758</v>
+        <v>2009.989385756648</v>
       </c>
       <c r="R4">
-        <v>52391.90963136382</v>
+        <v>18089.90447180983</v>
       </c>
       <c r="S4">
-        <v>0.2496374308795301</v>
+        <v>0.1594557720318084</v>
       </c>
       <c r="T4">
-        <v>0.2496374308795301</v>
+        <v>0.1594557720318084</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>172.3302</v>
       </c>
       <c r="I5">
-        <v>0.2031838091312023</v>
+        <v>0.3656254573230189</v>
       </c>
       <c r="J5">
-        <v>0.2031838091312023</v>
+        <v>0.365625457323019</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>5.914580333333333</v>
+        <v>3.841766333333334</v>
       </c>
       <c r="N5">
-        <v>17.743741</v>
+        <v>11.525299</v>
       </c>
       <c r="O5">
-        <v>0.07170723223214717</v>
+        <v>0.04788297632726236</v>
       </c>
       <c r="P5">
-        <v>0.07170723223214717</v>
+        <v>0.04788297632726236</v>
       </c>
       <c r="Q5">
-        <v>339.7536039198</v>
+        <v>220.6841201922</v>
       </c>
       <c r="R5">
-        <v>3057.7824352782</v>
+        <v>1986.1570817298</v>
       </c>
       <c r="S5">
-        <v>0.01456974858718339</v>
+        <v>0.01750723511764259</v>
       </c>
       <c r="T5">
-        <v>0.01456974858718339</v>
+        <v>0.01750723511764259</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>172.3302</v>
       </c>
       <c r="I6">
-        <v>0.2031838091312023</v>
+        <v>0.3656254573230189</v>
       </c>
       <c r="J6">
-        <v>0.2031838091312023</v>
+        <v>0.365625457323019</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>134.822727</v>
       </c>
       <c r="O6">
-        <v>0.5448549206821932</v>
+        <v>0.5601341401483774</v>
       </c>
       <c r="P6">
-        <v>0.5448549206821932</v>
+        <v>0.5601341401483775</v>
       </c>
       <c r="Q6">
         <v>2581.5586120506</v>
       </c>
       <c r="R6">
-        <v>23234.02750845541</v>
+        <v>23234.0275084554</v>
       </c>
       <c r="S6">
-        <v>0.1107056982080871</v>
+        <v>0.2047993011539865</v>
       </c>
       <c r="T6">
-        <v>0.1107056982080871</v>
+        <v>0.2047993011539865</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>172.3302</v>
       </c>
       <c r="I7">
-        <v>0.2031838091312023</v>
+        <v>0.3656254573230189</v>
       </c>
       <c r="J7">
-        <v>0.2031838091312023</v>
+        <v>0.365625457323019</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>31.626851</v>
+        <v>31.44972933333333</v>
       </c>
       <c r="N7">
-        <v>94.88055300000001</v>
+        <v>94.349188</v>
       </c>
       <c r="O7">
-        <v>0.3834378470856596</v>
+        <v>0.3919828835243602</v>
       </c>
       <c r="P7">
-        <v>0.3834378470856596</v>
+        <v>0.3919828835243602</v>
       </c>
       <c r="Q7">
-        <v>1816.7538527334</v>
+        <v>1806.5793819864</v>
       </c>
       <c r="R7">
-        <v>16350.7846746006</v>
+        <v>16259.2144378776</v>
       </c>
       <c r="S7">
-        <v>0.07790836233593181</v>
+        <v>0.1433189210513899</v>
       </c>
       <c r="T7">
-        <v>0.07790836233593181</v>
+        <v>0.1433189210513899</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>41.21033366666667</v>
+        <v>35.755375</v>
       </c>
       <c r="H8">
-        <v>123.631001</v>
+        <v>107.266125</v>
       </c>
       <c r="I8">
-        <v>0.1457656157184491</v>
+        <v>0.2275818516336261</v>
       </c>
       <c r="J8">
-        <v>0.1457656157184491</v>
+        <v>0.2275818516336262</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>5.914580333333333</v>
+        <v>3.841766333333334</v>
       </c>
       <c r="N8">
-        <v>17.743741</v>
+        <v>11.525299</v>
       </c>
       <c r="O8">
-        <v>0.07170723223214717</v>
+        <v>0.04788297632726236</v>
       </c>
       <c r="P8">
-        <v>0.07170723223214717</v>
+        <v>0.04788297632726236</v>
       </c>
       <c r="Q8">
-        <v>243.7418290349712</v>
+        <v>137.3637959107083</v>
       </c>
       <c r="R8">
-        <v>2193.676461314741</v>
+        <v>1236.274163196375</v>
       </c>
       <c r="S8">
-        <v>0.01045244885778475</v>
+        <v>0.01089729641428745</v>
       </c>
       <c r="T8">
-        <v>0.01045244885778476</v>
+        <v>0.01089729641428746</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>41.21033366666667</v>
+        <v>35.755375</v>
       </c>
       <c r="H9">
-        <v>123.631001</v>
+        <v>107.266125</v>
       </c>
       <c r="I9">
-        <v>0.1457656157184491</v>
+        <v>0.2275818516336261</v>
       </c>
       <c r="J9">
-        <v>0.1457656157184491</v>
+        <v>0.2275818516336262</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>134.822727</v>
       </c>
       <c r="O9">
-        <v>0.5448549206821932</v>
+        <v>0.5601341401483774</v>
       </c>
       <c r="P9">
-        <v>0.5448549206821932</v>
+        <v>0.5601341401483775</v>
       </c>
       <c r="Q9">
-        <v>1852.029855173303</v>
+        <v>1606.879054135875</v>
       </c>
       <c r="R9">
-        <v>16668.26869655973</v>
+        <v>14461.91148722287</v>
       </c>
       <c r="S9">
-        <v>0.07942111299046666</v>
+        <v>0.1274763647781768</v>
       </c>
       <c r="T9">
-        <v>0.07942111299046667</v>
+        <v>0.1274763647781768</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>41.21033366666667</v>
+        <v>35.755375</v>
       </c>
       <c r="H10">
-        <v>123.631001</v>
+        <v>107.266125</v>
       </c>
       <c r="I10">
-        <v>0.1457656157184491</v>
+        <v>0.2275818516336261</v>
       </c>
       <c r="J10">
-        <v>0.1457656157184491</v>
+        <v>0.2275818516336262</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>31.626851</v>
+        <v>31.44972933333333</v>
       </c>
       <c r="N10">
-        <v>94.88055300000001</v>
+        <v>94.349188</v>
       </c>
       <c r="O10">
-        <v>0.3834378470856596</v>
+        <v>0.3919828835243602</v>
       </c>
       <c r="P10">
-        <v>0.3834378470856596</v>
+        <v>0.3919828835243602</v>
       </c>
       <c r="Q10">
-        <v>1303.353082535951</v>
+        <v>1124.496865961833</v>
       </c>
       <c r="R10">
-        <v>11730.17774282355</v>
+        <v>10120.4717936565</v>
       </c>
       <c r="S10">
-        <v>0.05589205387019771</v>
+        <v>0.08920819044116189</v>
       </c>
       <c r="T10">
-        <v>0.05589205387019772</v>
+        <v>0.08920819044116191</v>
       </c>
     </row>
   </sheetData>
